--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3978.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3978.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.272817330392857</v>
+        <v>1.093599557876587</v>
       </c>
       <c r="B1">
-        <v>2.751678632123596</v>
+        <v>1.105777025222778</v>
       </c>
       <c r="C1">
-        <v>5.494311354221727</v>
+        <v>1.922296404838562</v>
       </c>
       <c r="D1">
-        <v>2.97324513904285</v>
+        <v>3.694671630859375</v>
       </c>
       <c r="E1">
-        <v>1.330968871462245</v>
+        <v>5.68695068359375</v>
       </c>
     </row>
   </sheetData>
